--- a/Empires2.xlsx
+++ b/Empires2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10785" windowHeight="1425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10785" windowHeight="1425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,33 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Britain</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>Dutch</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Ottoman</t>
-  </si>
-  <si>
-    <t>American</t>
+    <t>Britain #800000</t>
+  </si>
+  <si>
+    <t>Spanish Green</t>
+  </si>
+  <si>
+    <t>French Yellow</t>
+  </si>
+  <si>
+    <t>American Blue</t>
+  </si>
+  <si>
+    <t>Dutch Orange</t>
+  </si>
+  <si>
+    <t>Russian Purple</t>
+  </si>
+  <si>
+    <t>Chinese Cyan</t>
+  </si>
+  <si>
+    <t>Ottoman #008080</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>GBR; IND; AUS; NLD</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>ESP</t>
   </si>
 </sst>
 </file>
@@ -402,13 +426,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -437,6 +471,32 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
